--- a/biology/Botanique/Washingtonia_robusta/Washingtonia_robusta.xlsx
+++ b/biology/Botanique/Washingtonia_robusta/Washingtonia_robusta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Palmier jupon du Mexique
 Le Palmier jupon du Mexique (Washingtonia robusta) est une espèce de palmier appartenant au genre Washingtonia (Les palmiers jupons) et à la famille des Arécacées (les palmiers).
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce palmier se rencontre en Basse-Californie et dans le Sonora où il croît dans les lieux arides, et au fond des canyons, parfois en compagnie du Brahea brandegeei.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son stipe est élargi à la base mais ensuite beaucoup plus mince et gracile que celui de Washingtonia filifera. Il s'élance à plus de 20 m, parfois 30 m de hauteur. Il est assez souvent légèrement flexueux et plus ou moins courbé ou penché, contrairement à celui de Washingtonia filifera qui est généralement bien droit. Le panache de feuilles ressemble alors à un petit toupet au sommet d'une tige interminable. Ce qui lui a valu aux États-Unis le nom de « skyduster palm », le « chiffon à poussière du ciel ».
 Les pétioles n'excèdent pas 1,50 m et sont pourvus de dents orange marron plus proéminentes que chez le Washingtonia filifera. La base du pétiole est colorée de rouge marron de façon évidente. Elle est largement fendue et garde une teinte rougeâtre pendant longtemps, même lorsqu'elle est sèche.
@@ -576,7 +592,9 @@
           <t>Climat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le palmier Washingtonia robusta pousse dans les régions chaudes et ensoleillées. Il supporte bien les températures élevées et ne craint pas trop les pluies rares. Il peut supporter le froid jusqu'à environ −6 °C.
 </t>
@@ -607,7 +625,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un palmier de croissance rapide. Dans le midi, un jeune Washingtonia, planté en terre, et de la grosseur d'un gros poireau, devient en quelques années un palmier de presque trois mètres de hauteur avec une base de stipe quasiment formée.
 Le Washingtonia robusta demande évidemment une exposition ensoleillée mais comme pour le Washingtonia filifera, il est indifférent à la nature du sol, quoiqu'il ait une préférence pour les terres alcalines comme beaucoup de palmiers originaires des zones arides. Il est un peu moins rustique que son cousin californien mais il est de toute façon bien adapté au climat tempéré chaud.
@@ -648,7 +668,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Du latin robustus, « résistant ».</t>
         </is>
